--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/信访-导入.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/信访-导入.xlsx
@@ -16,33 +16,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
-  <si>
-    <t>{Form=7}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+  <si>
+    <t>信访 9</t>
   </si>
   <si>
     <t>信访情况</t>
   </si>
   <si>
-    <t>{Quarter}季度</t>
-  </si>
-  <si>
-    <t>{Rate}同比%</t>
-  </si>
-  <si>
-    <t>{Node=141}</t>
-  </si>
-  <si>
-    <t>{Value=3}</t>
+    <t>{Quarter}</t>
+  </si>
+  <si>
+    <t>同比%</t>
+  </si>
+  <si>
+    <t>本期来信</t>
+  </si>
+  <si>
+    <t>{Value=2}</t>
   </si>
   <si>
     <t>{RateValue=1}</t>
   </si>
   <si>
-    <t>{Node=142}</t>
-  </si>
-  <si>
-    <t>{Value=8}</t>
+    <t>本期来访</t>
+  </si>
+  <si>
+    <t>{Value=7}</t>
+  </si>
+  <si>
+    <t>分区来信来访情况（次）</t>
+  </si>
+  <si>
+    <t>来信</t>
+  </si>
+  <si>
+    <t>来访（批次/人次）</t>
+  </si>
+  <si>
+    <t>市本级</t>
+  </si>
+  <si>
+    <t>{Value=2 Node=78}</t>
+  </si>
+  <si>
+    <t>{Value=7 Node=79}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：新城</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          产业集聚区</t>
+  </si>
+  <si>
+    <t>定海区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：金塘</t>
+  </si>
+  <si>
+    <t>普陀区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：六横</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          朱家尖</t>
+  </si>
+  <si>
+    <t>岱山县</t>
+  </si>
+  <si>
+    <t>嵊泗县</t>
   </si>
 </sst>
 </file>
@@ -50,12 +95,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,16 +109,117 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="黑体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0099FF"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,14 +241,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -110,27 +264,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -140,82 +273,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,31 +288,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0099FF"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,151 +450,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,22 +504,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF0099FF"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,6 +542,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -490,41 +601,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -538,10 +614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,154 +626,169 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -755,6 +846,8 @@
   <colors>
     <mruColors>
       <color rgb="000000FF"/>
+      <color rgb="000066FF"/>
+      <color rgb="000099FF"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -1019,20 +1112,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="28" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,35 +1152,176 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
+    <row r="5" ht="19" customHeight="1" spans="1:4">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2"/>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" ht="22.5" spans="1:4">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" ht="22.5" spans="1:4">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" ht="22.5" spans="1:4">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" ht="22.5" spans="1:4">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" ht="22.5" spans="1:4">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" ht="22.5" spans="1:4">
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" ht="22.5" spans="1:4">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" ht="18" customHeight="1" spans="1:4">
+      <c r="A15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" ht="22.5" spans="1:4">
+      <c r="A16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" ht="23.25" spans="1:4">
+      <c r="A17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
